--- a/src/Data/AutomationInputSheet_PhaseRegressionJetUI_update-Sanity.xlsx
+++ b/src/Data/AutomationInputSheet_PhaseRegressionJetUI_update-Sanity.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="167">
   <si>
     <t>CPQ</t>
   </si>
@@ -315,9 +315,6 @@
   </si>
   <si>
     <t>Protected</t>
-  </si>
-  <si>
-    <t>10 Mbps</t>
   </si>
   <si>
     <t>Ethernet &gt; Ethernet Hub</t>
@@ -416,10 +413,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Ethernet  Product Configuration- National Coverage - Onnet - Unprotected
-</t>
-  </si>
-  <si>
     <t>10 Rue Friant Paris France</t>
   </si>
   <si>
@@ -528,6 +521,16 @@
   </si>
   <si>
     <t>A0161445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All  Product Configuration- National Coverage - Onnet - Unprotected
+</t>
+  </si>
+  <si>
+    <t>Ip domain</t>
+  </si>
+  <si>
+    <t>IpAccess</t>
   </si>
 </sst>
 </file>
@@ -558,7 +561,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -580,6 +583,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,7 +685,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -732,16 +747,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -753,9 +783,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -763,24 +790,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -791,6 +800,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1073,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL48"/>
+  <dimension ref="A1:BL49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,72 +1166,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="37"/>
-      <c r="AS1" s="37"/>
-      <c r="AT1" s="37"/>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="37"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
-      <c r="AZ1" s="37"/>
-      <c r="BA1" s="37"/>
-      <c r="BB1" s="37"/>
-      <c r="BC1" s="37"/>
-      <c r="BD1" s="37"/>
-      <c r="BE1" s="37"/>
-      <c r="BF1" s="37"/>
-      <c r="BG1" s="37"/>
-      <c r="BH1" s="37"/>
-      <c r="BI1" s="37"/>
-      <c r="BJ1" s="37"/>
-      <c r="BK1" s="37"/>
-      <c r="BL1" s="37"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
+      <c r="AW1" s="33"/>
+      <c r="AX1" s="33"/>
+      <c r="AY1" s="33"/>
+      <c r="AZ1" s="33"/>
+      <c r="BA1" s="33"/>
+      <c r="BB1" s="33"/>
+      <c r="BC1" s="33"/>
+      <c r="BD1" s="33"/>
+      <c r="BE1" s="33"/>
+      <c r="BF1" s="33"/>
+      <c r="BG1" s="33"/>
+      <c r="BH1" s="33"/>
+      <c r="BI1" s="33"/>
+      <c r="BJ1" s="33"/>
+      <c r="BK1" s="33"/>
+      <c r="BL1" s="33"/>
     </row>
     <row r="2" spans="1:64" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1404,19 +1428,19 @@
       </c>
     </row>
     <row r="3" spans="1:64" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="33" t="s">
+      <c r="A3" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="37">
         <v>3795623</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="37" t="s">
         <v>67</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -1514,13 +1538,13 @@
       <c r="BL3" s="11"/>
     </row>
     <row r="4" spans="1:64" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -1604,19 +1628,19 @@
       <c r="BL4" s="11"/>
     </row>
     <row r="5" spans="1:64" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
       <c r="F5" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>67</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>69</v>
@@ -1708,13 +1732,13 @@
       <c r="BL5" s="11"/>
     </row>
     <row r="6" spans="1:64" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -1810,19 +1834,19 @@
       <c r="BL6" s="11"/>
     </row>
     <row r="7" spans="1:64" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="33" t="s">
+      <c r="A7" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="37">
         <v>3795623</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="37" t="s">
         <v>67</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -1922,16 +1946,16 @@
       <c r="BL7" s="11"/>
     </row>
     <row r="8" spans="1:64" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
       <c r="F8" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H8" s="7">
         <v>123462</v>
@@ -2020,39 +2044,47 @@
       <c r="BL8" s="11"/>
     </row>
     <row r="9" spans="1:64" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
+      <c r="A9" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="37">
+        <v>3795623</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>67</v>
+      </c>
       <c r="F9" s="7" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>69</v>
+      <c r="I9" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q9" s="7"/>
       <c r="R9" s="7" t="s">
@@ -2075,11 +2107,21 @@
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
+      <c r="AB9" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD9" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF9" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="AG9" s="11"/>
       <c r="AH9" s="11"/>
       <c r="AI9" s="11"/>
@@ -2114,38 +2156,32 @@
       <c r="BL9" s="11"/>
     </row>
     <row r="10" spans="1:64" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="33">
-        <v>3795623</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>67</v>
-      </c>
+      <c r="A10" s="35"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
       <c r="F10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="7">
+        <v>123464</v>
+      </c>
       <c r="I10" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="10" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="N10" s="10" t="s">
         <v>72</v>
@@ -2177,21 +2213,11 @@
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
-      <c r="AB10" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD10" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE10" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF10" s="10" t="s">
-        <v>65</v>
-      </c>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
       <c r="AG10" s="11"/>
       <c r="AH10" s="11"/>
       <c r="AI10" s="11"/>
@@ -2225,42 +2251,48 @@
       <c r="BK10" s="11"/>
       <c r="BL10" s="11"/>
     </row>
-    <row r="11" spans="1:64" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
+    <row r="11" spans="1:64" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="37">
+        <v>3795623</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>67</v>
+      </c>
       <c r="F11" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" s="7">
-        <v>123464</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>131</v>
+        <v>68</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>78</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="10" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="N11" s="10" t="s">
         <v>72</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="7" t="s">
@@ -2283,11 +2315,21 @@
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
+      <c r="AB11" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD11" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF11" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="AG11" s="11"/>
       <c r="AH11" s="11"/>
       <c r="AI11" s="11"/>
@@ -2321,35 +2363,29 @@
       <c r="BK11" s="11"/>
       <c r="BL11" s="11"/>
     </row>
-    <row r="12" spans="1:64" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="33">
-        <v>3795623</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>67</v>
-      </c>
+    <row r="12" spans="1:64" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
       <c r="F12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="7">
+        <v>123469</v>
+      </c>
       <c r="I12" s="8" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="10" t="s">
@@ -2385,21 +2421,11 @@
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
-      <c r="AB12" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD12" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE12" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF12" s="10" t="s">
-        <v>65</v>
-      </c>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
       <c r="AG12" s="11"/>
       <c r="AH12" s="11"/>
       <c r="AI12" s="11"/>
@@ -2433,26 +2459,32 @@
       <c r="BK12" s="11"/>
       <c r="BL12" s="11"/>
     </row>
-    <row r="13" spans="1:64" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
+    <row r="13" spans="1:64" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="17">
+        <v>3795623</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="F13" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H13" s="7">
-        <v>123469</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
       <c r="I13" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>70</v>
@@ -2465,10 +2497,10 @@
         <v>72</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="7"/>
       <c r="R13" s="7" t="s">
@@ -2491,11 +2523,21 @@
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
+      <c r="AB13" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD13" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF13" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="AG13" s="11"/>
       <c r="AH13" s="11"/>
       <c r="AI13" s="11"/>
@@ -2529,20 +2571,20 @@
       <c r="BK13" s="11"/>
       <c r="BL13" s="11"/>
     </row>
-    <row r="14" spans="1:64" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="17">
+    <row r="14" spans="1:64" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="37">
         <v>3795623</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="37" t="s">
         <v>67</v>
       </c>
       <c r="F14" s="7" t="s">
@@ -2551,31 +2593,29 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>70</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="10" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="N14" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="O14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>90</v>
+      <c r="O14" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="Q14" s="7"/>
-      <c r="R14" s="7" t="s">
-        <v>86</v>
-      </c>
+      <c r="R14" s="7"/>
       <c r="S14" s="11"/>
       <c r="T14" s="12"/>
       <c r="U14" s="7">
@@ -2642,26 +2682,20 @@
       <c r="BL14" s="11"/>
     </row>
     <row r="15" spans="1:64" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="33">
-        <v>3795623</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>67</v>
-      </c>
+      <c r="A15" s="35"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
       <c r="F15" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="7">
+        <v>123456</v>
+      </c>
       <c r="I15" s="8" t="s">
         <v>92</v>
       </c>
@@ -2669,7 +2703,7 @@
         <v>93</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="10" t="s">
@@ -2703,21 +2737,11 @@
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
-      <c r="AB15" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC15" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD15" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE15" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF15" s="10" t="s">
-        <v>65</v>
-      </c>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
       <c r="AG15" s="11"/>
       <c r="AH15" s="11"/>
       <c r="AI15" s="11"/>
@@ -2752,20 +2776,16 @@
       <c r="BL15" s="11"/>
     </row>
     <row r="16" spans="1:64" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
       <c r="F16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H16" s="7">
-        <v>123456</v>
-      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
       <c r="I16" s="8" t="s">
         <v>92</v>
       </c>
@@ -2773,11 +2793,13 @@
         <v>93</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="L16" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="M16" s="10" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="N16" s="10" t="s">
         <v>72</v>
@@ -2845,39 +2867,47 @@
       <c r="BK16" s="11"/>
       <c r="BL16" s="11"/>
     </row>
-    <row r="17" spans="1:64" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
+    <row r="17" spans="1:64" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="13">
+        <v>3795623</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>67</v>
+      </c>
       <c r="F17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="G17" s="10"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="K17" s="9" t="s">
+      <c r="I17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="N17" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="O17" s="10" t="s">
+      <c r="L17" s="7"/>
+      <c r="M17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P17" s="10" t="s">
+      <c r="P17" s="7" t="s">
         <v>73</v>
       </c>
       <c r="Q17" s="7"/>
@@ -2896,14 +2926,30 @@
       <c r="X17" s="7">
         <v>130245</v>
       </c>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="10"/>
+      <c r="Y17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z17" s="7">
+        <v>3</v>
+      </c>
+      <c r="AA17" s="7">
+        <v>3</v>
+      </c>
+      <c r="AB17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC17" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD17" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE17" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF17" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="AG17" s="11"/>
       <c r="AH17" s="11"/>
       <c r="AI17" s="11"/>
@@ -2939,13 +2985,13 @@
     </row>
     <row r="18" spans="1:64" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="25" t="s">
         <v>65</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D18" s="13">
         <v>3795623</v>
@@ -2956,7 +3002,7 @@
       <c r="F18" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="10"/>
+      <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7" t="s">
         <v>69</v>
@@ -2964,15 +3010,15 @@
       <c r="J18" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>78</v>
+      <c r="K18" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="L18" s="7"/>
-      <c r="M18" s="7" t="s">
+      <c r="M18" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="N18" s="7" t="s">
-        <v>96</v>
+      <c r="N18" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>73</v>
@@ -2997,13 +3043,13 @@
         <v>130245</v>
       </c>
       <c r="Y18" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z18" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AA18" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB18" s="7" t="s">
         <v>74</v>
@@ -3057,11 +3103,11 @@
       <c r="A19" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="25" t="s">
         <v>65</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D19" s="13">
         <v>3795623</v>
@@ -3074,10 +3120,10 @@
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="8" t="s">
         <v>89</v>
       </c>
       <c r="K19" s="9" t="s">
@@ -3085,21 +3131,25 @@
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N19" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="O19" s="7" t="s">
+      <c r="O19" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="P19" s="10" t="s">
         <v>73</v>
       </c>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="12"/>
+      <c r="S19" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="T19" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="U19" s="7">
         <v>18</v>
       </c>
@@ -3112,15 +3162,9 @@
       <c r="X19" s="7">
         <v>130245</v>
       </c>
-      <c r="Y19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z19" s="7">
-        <v>7</v>
-      </c>
-      <c r="AA19" s="7">
-        <v>7</v>
-      </c>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
       <c r="AB19" s="7" t="s">
         <v>74</v>
       </c>
@@ -3169,20 +3213,20 @@
       <c r="BK19" s="11"/>
       <c r="BL19" s="11"/>
     </row>
-    <row r="20" spans="1:64" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="47" t="s">
         <v>65</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D20" s="13">
         <v>3795623</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="13" t="s">
         <v>67</v>
       </c>
       <c r="F20" s="7" t="s">
@@ -3196,30 +3240,28 @@
       <c r="J20" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="7" t="s">
         <v>70</v>
       </c>
       <c r="L20" s="7"/>
-      <c r="M20" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="N20" s="10" t="s">
+      <c r="M20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="N20" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="O20" s="10" t="s">
+      <c r="O20" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P20" s="10" t="s">
+      <c r="P20" s="7" t="s">
         <v>73</v>
       </c>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="T20" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="S20" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="T20" s="11"/>
       <c r="U20" s="7">
         <v>18</v>
       </c>
@@ -3285,15 +3327,15 @@
     </row>
     <row r="21" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B21" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="25" t="s">
         <v>65</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21" s="13">
+        <v>115</v>
+      </c>
+      <c r="D21" s="18">
         <v>3795623</v>
       </c>
       <c r="E21" s="13" t="s">
@@ -3307,18 +3349,18 @@
       <c r="I21" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J21" s="8" t="s">
-        <v>89</v>
+      <c r="J21" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>70</v>
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="7" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>73</v>
@@ -3328,9 +3370,7 @@
       </c>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
-      <c r="S21" s="11" t="s">
-        <v>111</v>
-      </c>
+      <c r="S21" s="11"/>
       <c r="T21" s="11"/>
       <c r="U21" s="7">
         <v>18</v>
@@ -3397,13 +3437,13 @@
     </row>
     <row r="22" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B22" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="25" t="s">
         <v>65</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D22" s="18">
         <v>3795623</v>
@@ -3417,20 +3457,20 @@
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="8" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>70</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="7" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>73</v>
@@ -3506,52 +3546,50 @@
       <c r="BL22" s="11"/>
     </row>
     <row r="23" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23" s="18" t="s">
+      <c r="A23" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="25" t="s">
         <v>65</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" s="18">
+        <v>95</v>
+      </c>
+      <c r="D23" s="13">
         <v>3795623</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="18" t="s">
         <v>67</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="K23" s="9" t="s">
         <v>70</v>
       </c>
       <c r="L23" s="7"/>
-      <c r="M23" s="7" t="s">
+      <c r="M23" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="N23" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="O23" s="7" t="s">
+      <c r="N23" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="O23" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="P23" s="10" t="s">
         <v>73</v>
       </c>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="19"/>
       <c r="U23" s="7">
         <v>18</v>
       </c>
@@ -3564,10 +3602,16 @@
       <c r="X23" s="7">
         <v>130245</v>
       </c>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7" t="s">
+      <c r="Y23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z23" s="7">
+        <v>15</v>
+      </c>
+      <c r="AA23" s="7">
+        <v>15</v>
+      </c>
+      <c r="AB23" s="13" t="s">
         <v>74</v>
       </c>
       <c r="AC23" s="19" t="s">
@@ -3619,24 +3663,24 @@
       <c r="A24" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="25" t="s">
         <v>65</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="18">
         <v>3795623</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>67</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="15" t="s">
         <v>69</v>
       </c>
       <c r="J24" s="8"/>
@@ -3659,7 +3703,7 @@
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
-      <c r="T24" s="19"/>
+      <c r="T24" s="7"/>
       <c r="U24" s="7">
         <v>18</v>
       </c>
@@ -3673,13 +3717,13 @@
         <v>130245</v>
       </c>
       <c r="Y24" s="7" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="Z24" s="7">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="AA24" s="7">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="AB24" s="13" t="s">
         <v>74</v>
@@ -3731,10 +3775,10 @@
     </row>
     <row r="25" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="B25" s="41" t="s">
-        <v>113</v>
+        <v>123</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>95</v>
@@ -3742,11 +3786,9 @@
       <c r="D25" s="18">
         <v>3795623</v>
       </c>
-      <c r="E25" s="18" t="s">
-        <v>67</v>
-      </c>
+      <c r="E25" s="18"/>
       <c r="F25" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -3787,7 +3829,7 @@
         <v>130245</v>
       </c>
       <c r="Y25" s="7" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="Z25" s="7">
         <v>4</v>
@@ -3853,12 +3895,10 @@
       <c r="C26" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="18">
-        <v>3795623</v>
-      </c>
+      <c r="D26" s="18"/>
       <c r="E26" s="18"/>
       <c r="F26" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -3899,7 +3939,7 @@
         <v>130245</v>
       </c>
       <c r="Y26" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Z26" s="7">
         <v>4</v>
@@ -3955,36 +3995,42 @@
       <c r="BK26" s="11"/>
       <c r="BL26" s="11"/>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="B27" s="18" t="s">
+    <row r="27" spans="1:64" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="25" t="s">
         <v>65</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
+        <v>66</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3795623</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>67</v>
+      </c>
       <c r="F27" s="7" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
-      <c r="I27" s="15" t="s">
+      <c r="I27" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J27" s="8"/>
+      <c r="J27" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="K27" s="9" t="s">
         <v>70</v>
       </c>
       <c r="L27" s="7"/>
       <c r="M27" s="10" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="O27" s="10" t="s">
         <v>73</v>
@@ -3994,8 +4040,8 @@
       </c>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="12"/>
       <c r="U27" s="7">
         <v>18</v>
       </c>
@@ -4008,9 +4054,7 @@
       <c r="X27" s="7">
         <v>130245</v>
       </c>
-      <c r="Y27" s="7" t="s">
-        <v>123</v>
-      </c>
+      <c r="Y27" s="7"/>
       <c r="Z27" s="7">
         <v>4</v>
       </c>
@@ -4020,7 +4064,7 @@
       <c r="AB27" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="AC27" s="19" t="s">
+      <c r="AC27" s="7" t="s">
         <v>75</v>
       </c>
       <c r="AD27" s="10" t="s">
@@ -4065,20 +4109,20 @@
       <c r="BK27" s="11"/>
       <c r="BL27" s="11"/>
     </row>
-    <row r="28" spans="1:64" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="7" t="s">
+    <row r="28" spans="1:64" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="7">
-        <v>3795623</v>
-      </c>
-      <c r="E28" s="18" t="s">
+      <c r="D28" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" s="37" t="s">
         <v>67</v>
       </c>
       <c r="F28" s="7" t="s">
@@ -4125,13 +4169,9 @@
         <v>130245</v>
       </c>
       <c r="Y28" s="7"/>
-      <c r="Z28" s="7">
-        <v>4</v>
-      </c>
-      <c r="AA28" s="7">
-        <v>4</v>
-      </c>
-      <c r="AB28" s="13" t="s">
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="17" t="s">
         <v>74</v>
       </c>
       <c r="AC28" s="7" t="s">
@@ -4180,48 +4220,30 @@
       <c r="BL28" s="11"/>
     </row>
     <row r="29" spans="1:64" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>67</v>
-      </c>
+      <c r="A29" s="35"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="38"/>
       <c r="F29" s="7" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
-      <c r="I29" s="8" t="s">
+      <c r="I29" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="J29" s="8" t="s">
-        <v>69</v>
-      </c>
+      <c r="J29" s="15"/>
       <c r="K29" s="9" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L29" s="7"/>
-      <c r="M29" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="N29" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="O29" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="P29" s="10" t="s">
-        <v>73</v>
-      </c>
+      <c r="M29" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
       <c r="S29" s="11"/>
@@ -4235,9 +4257,7 @@
       <c r="W29" s="7">
         <v>4534534534</v>
       </c>
-      <c r="X29" s="7">
-        <v>130245</v>
-      </c>
+      <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
       <c r="AA29" s="7"/>
@@ -4290,30 +4310,42 @@
       <c r="BL29" s="11"/>
     </row>
     <row r="30" spans="1:64" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="34"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="38"/>
       <c r="F30" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="15" t="s">
+      <c r="G30" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I30" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J30" s="15"/>
+      <c r="J30" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="K30" s="9" t="s">
         <v>78</v>
       </c>
       <c r="L30" s="7"/>
-      <c r="M30" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
+      <c r="M30" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="P30" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
       <c r="S30" s="11"/>
@@ -4327,7 +4359,9 @@
       <c r="W30" s="7">
         <v>4534534534</v>
       </c>
-      <c r="X30" s="7"/>
+      <c r="X30" s="7">
+        <v>130245</v>
+      </c>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
@@ -4380,20 +4414,16 @@
       <c r="BL30" s="11"/>
     </row>
     <row r="31" spans="1:64" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="34"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="39"/>
       <c r="F31" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>100</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
       <c r="I31" s="8" t="s">
         <v>69</v>
       </c>
@@ -4403,9 +4433,11 @@
       <c r="K31" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="L31" s="7"/>
+      <c r="L31" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="M31" s="10" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="N31" s="10" t="s">
         <v>72</v>
@@ -4483,34 +4515,42 @@
       <c r="BK31" s="11"/>
       <c r="BL31" s="11"/>
     </row>
-    <row r="32" spans="1:64" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="7" t="s">
-        <v>102</v>
+    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="30">
+        <v>3795623</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>136</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="8" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>79</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="L32" s="7"/>
       <c r="M32" s="10" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="O32" s="10" t="s">
         <v>73</v>
@@ -4520,8 +4560,8 @@
       </c>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="12"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
       <c r="U32" s="7">
         <v>18</v>
       </c>
@@ -4532,15 +4572,21 @@
         <v>4534534534</v>
       </c>
       <c r="X32" s="7">
-        <v>130245</v>
-      </c>
-      <c r="Y32" s="7"/>
-      <c r="Z32" s="7"/>
-      <c r="AA32" s="7"/>
-      <c r="AB32" s="17" t="s">
+        <v>100226</v>
+      </c>
+      <c r="Y32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z32" s="7">
+        <v>4</v>
+      </c>
+      <c r="AA32" s="7">
+        <v>4</v>
+      </c>
+      <c r="AB32" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="AC32" s="7" t="s">
+      <c r="AC32" s="19" t="s">
         <v>75</v>
       </c>
       <c r="AD32" s="10" t="s">
@@ -4552,62 +4598,112 @@
       <c r="AF32" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="AG32" s="11"/>
-      <c r="AH32" s="11"/>
-      <c r="AI32" s="11"/>
-      <c r="AJ32" s="11"/>
-      <c r="AK32" s="11"/>
-      <c r="AL32" s="11"/>
-      <c r="AM32" s="11"/>
-      <c r="AN32" s="11"/>
-      <c r="AO32" s="11"/>
-      <c r="AP32" s="11"/>
-      <c r="AQ32" s="11"/>
-      <c r="AR32" s="11"/>
-      <c r="AS32" s="11"/>
-      <c r="AT32" s="11"/>
-      <c r="AU32" s="11"/>
-      <c r="AV32" s="11"/>
-      <c r="AW32" s="11"/>
-      <c r="AX32" s="11"/>
-      <c r="AY32" s="11"/>
-      <c r="AZ32" s="11"/>
-      <c r="BA32" s="11"/>
-      <c r="BB32" s="11"/>
-      <c r="BC32" s="11"/>
-      <c r="BD32" s="11"/>
-      <c r="BE32" s="11"/>
-      <c r="BF32" s="11"/>
-      <c r="BG32" s="11"/>
-      <c r="BH32" s="11"/>
-      <c r="BI32" s="11"/>
-      <c r="BJ32" s="11"/>
-      <c r="BK32" s="11"/>
-      <c r="BL32" s="11"/>
+      <c r="AG32" s="10"/>
+      <c r="AH32" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI32" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ32" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK32" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL32" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM32" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN32" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO32" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AP32" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ32" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR32" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS32" s="10"/>
+      <c r="AT32" s="10"/>
+      <c r="AU32" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV32" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW32" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX32" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AY32" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ32" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA32" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB32" s="10">
+        <v>100</v>
+      </c>
+      <c r="BC32" s="10">
+        <v>12345</v>
+      </c>
+      <c r="BD32" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE32" s="10">
+        <v>2</v>
+      </c>
+      <c r="BF32" s="10">
+        <v>2</v>
+      </c>
+      <c r="BG32" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH32" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="BI32" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="BJ32" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="BK32" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL32" s="11" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="33" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="23" t="s">
+      <c r="A33" s="27"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="27">
-        <v>3795623</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>138</v>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="8" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>89</v>
@@ -4622,31 +4718,17 @@
       <c r="N33" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="O33" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="P33" s="10" t="s">
-        <v>73</v>
-      </c>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
-      <c r="U33" s="7">
-        <v>18</v>
-      </c>
-      <c r="V33" s="13">
-        <v>123566534</v>
-      </c>
-      <c r="W33" s="7">
-        <v>4534534534</v>
-      </c>
-      <c r="X33" s="7">
-        <v>100226</v>
-      </c>
-      <c r="Y33" s="7" t="s">
-        <v>139</v>
-      </c>
+      <c r="U33" s="7"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
       <c r="Z33" s="7">
         <v>4</v>
       </c>
@@ -4659,75 +4741,31 @@
       <c r="AC33" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="AD33" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE33" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF33" s="10" t="s">
-        <v>65</v>
-      </c>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10"/>
       <c r="AG33" s="10"/>
-      <c r="AH33" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI33" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ33" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK33" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL33" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM33" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AN33" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="AO33" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="AP33" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="AQ33" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AR33" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="AH33" s="10"/>
+      <c r="AI33" s="10"/>
+      <c r="AJ33" s="10"/>
+      <c r="AK33" s="10"/>
+      <c r="AL33" s="10"/>
+      <c r="AM33" s="10"/>
+      <c r="AN33" s="10"/>
+      <c r="AO33" s="10"/>
+      <c r="AP33" s="10"/>
+      <c r="AQ33" s="10"/>
+      <c r="AR33" s="10"/>
       <c r="AS33" s="10"/>
       <c r="AT33" s="10"/>
-      <c r="AU33" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="AV33" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="AW33" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AX33" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AY33" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ33" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="BA33" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="BB33" s="10">
-        <v>100</v>
-      </c>
+      <c r="AU33" s="10"/>
+      <c r="AV33" s="10"/>
+      <c r="AW33" s="10"/>
+      <c r="AX33" s="10"/>
+      <c r="AY33" s="10"/>
+      <c r="AZ33" s="10"/>
+      <c r="BA33" s="10"/>
+      <c r="BB33" s="10"/>
       <c r="BC33" s="10">
         <v>12345</v>
       </c>
@@ -4741,39 +4779,43 @@
         <v>2</v>
       </c>
       <c r="BG33" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH33" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="BH33" s="10" t="s">
-        <v>151</v>
-      </c>
       <c r="BI33" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="BJ33" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="BK33" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="BL33" s="11" t="s">
-        <v>154</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="BK33" s="11"/>
+      <c r="BL33" s="11"/>
     </row>
     <row r="34" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="7" t="s">
+      <c r="A34" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="7" t="s">
-        <v>155</v>
+      <c r="D34" s="30">
+        <v>3795623</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>136</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
-      <c r="I34" s="8" t="s">
-        <v>156</v>
+      <c r="I34" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="J34" s="8" t="s">
         <v>89</v>
@@ -4788,17 +4830,31 @@
       <c r="N34" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="P34" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="13"/>
-      <c r="W34" s="7"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="7"/>
+      <c r="U34" s="7">
+        <v>18</v>
+      </c>
+      <c r="V34" s="13">
+        <v>123566534</v>
+      </c>
+      <c r="W34" s="7">
+        <v>4534534534</v>
+      </c>
+      <c r="X34" s="7">
+        <v>100226</v>
+      </c>
+      <c r="Y34" s="7" t="s">
+        <v>137</v>
+      </c>
       <c r="Z34" s="7">
         <v>4</v>
       </c>
@@ -4811,31 +4867,75 @@
       <c r="AC34" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="AD34" s="10"/>
-      <c r="AE34" s="10"/>
-      <c r="AF34" s="10"/>
+      <c r="AD34" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE34" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF34" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="AG34" s="10"/>
-      <c r="AH34" s="10"/>
-      <c r="AI34" s="10"/>
-      <c r="AJ34" s="10"/>
-      <c r="AK34" s="10"/>
-      <c r="AL34" s="10"/>
-      <c r="AM34" s="10"/>
-      <c r="AN34" s="10"/>
-      <c r="AO34" s="10"/>
-      <c r="AP34" s="10"/>
-      <c r="AQ34" s="10"/>
-      <c r="AR34" s="10"/>
+      <c r="AH34" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI34" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ34" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK34" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL34" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM34" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN34" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO34" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AP34" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ34" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR34" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="AS34" s="10"/>
       <c r="AT34" s="10"/>
-      <c r="AU34" s="10"/>
-      <c r="AV34" s="10"/>
-      <c r="AW34" s="10"/>
-      <c r="AX34" s="10"/>
-      <c r="AY34" s="10"/>
-      <c r="AZ34" s="10"/>
-      <c r="BA34" s="10"/>
-      <c r="BB34" s="10"/>
+      <c r="AU34" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV34" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW34" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX34" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AY34" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ34" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA34" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB34" s="10">
+        <v>100</v>
+      </c>
       <c r="BC34" s="10">
         <v>12345</v>
       </c>
@@ -4843,49 +4943,45 @@
         <v>82</v>
       </c>
       <c r="BE34" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF34" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG34" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH34" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="BH34" s="10" t="s">
+      <c r="BI34" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="BJ34" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BI34" s="11" t="s">
+      <c r="BK34" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL34" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="BJ34" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="BK34" s="11"/>
-      <c r="BL34" s="11"/>
     </row>
     <row r="35" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="B35" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="23" t="s">
+      <c r="A35" s="27"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="27">
-        <v>3795623</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>138</v>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
-      <c r="I35" s="15" t="s">
-        <v>69</v>
+      <c r="I35" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>89</v>
@@ -4900,31 +4996,17 @@
       <c r="N35" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="O35" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="P35" s="10" t="s">
-        <v>73</v>
-      </c>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
       <c r="S35" s="7"/>
       <c r="T35" s="7"/>
-      <c r="U35" s="7">
-        <v>18</v>
-      </c>
-      <c r="V35" s="13">
-        <v>123566534</v>
-      </c>
-      <c r="W35" s="7">
-        <v>4534534534</v>
-      </c>
-      <c r="X35" s="7">
-        <v>100226</v>
-      </c>
-      <c r="Y35" s="7" t="s">
-        <v>139</v>
-      </c>
+      <c r="U35" s="7"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
       <c r="Z35" s="7">
         <v>4</v>
       </c>
@@ -4937,75 +5019,31 @@
       <c r="AC35" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="AD35" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE35" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF35" s="10" t="s">
-        <v>65</v>
-      </c>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="10"/>
       <c r="AG35" s="10"/>
-      <c r="AH35" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI35" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ35" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK35" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL35" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM35" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AN35" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="AO35" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="AP35" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="AQ35" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AR35" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="AH35" s="10"/>
+      <c r="AI35" s="10"/>
+      <c r="AJ35" s="10"/>
+      <c r="AK35" s="10"/>
+      <c r="AL35" s="10"/>
+      <c r="AM35" s="10"/>
+      <c r="AN35" s="10"/>
+      <c r="AO35" s="10"/>
+      <c r="AP35" s="10"/>
+      <c r="AQ35" s="10"/>
+      <c r="AR35" s="10"/>
       <c r="AS35" s="10"/>
       <c r="AT35" s="10"/>
-      <c r="AU35" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="AV35" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="AW35" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AX35" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AY35" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ35" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="BA35" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="BB35" s="10">
-        <v>100</v>
-      </c>
+      <c r="AU35" s="10"/>
+      <c r="AV35" s="10"/>
+      <c r="AW35" s="10"/>
+      <c r="AX35" s="10"/>
+      <c r="AY35" s="10"/>
+      <c r="AZ35" s="10"/>
+      <c r="BA35" s="10"/>
+      <c r="BB35" s="10"/>
       <c r="BC35" s="10">
         <v>12345</v>
       </c>
@@ -5013,45 +5051,49 @@
         <v>82</v>
       </c>
       <c r="BE35" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF35" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG35" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH35" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="BH35" s="10" t="s">
-        <v>151</v>
-      </c>
       <c r="BI35" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="BJ35" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="BK35" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="BL35" s="11" t="s">
-        <v>154</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="BK35" s="11"/>
+      <c r="BL35" s="11"/>
     </row>
     <row r="36" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="7" t="s">
+      <c r="A36" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="7" t="s">
-        <v>159</v>
+      <c r="D36" s="30">
+        <v>3795623</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>136</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="8" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>89</v>
@@ -5066,17 +5108,31 @@
       <c r="N36" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
+      <c r="O36" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="P36" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
       <c r="S36" s="7"/>
       <c r="T36" s="7"/>
-      <c r="U36" s="7"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="7"/>
-      <c r="X36" s="7"/>
-      <c r="Y36" s="7"/>
+      <c r="U36" s="7">
+        <v>18</v>
+      </c>
+      <c r="V36" s="13">
+        <v>123566534</v>
+      </c>
+      <c r="W36" s="7">
+        <v>4534534534</v>
+      </c>
+      <c r="X36" s="7">
+        <v>100226</v>
+      </c>
+      <c r="Y36" s="7" t="s">
+        <v>137</v>
+      </c>
       <c r="Z36" s="7">
         <v>4</v>
       </c>
@@ -5089,31 +5145,75 @@
       <c r="AC36" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="AD36" s="10"/>
-      <c r="AE36" s="10"/>
-      <c r="AF36" s="10"/>
+      <c r="AD36" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE36" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF36" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="AG36" s="10"/>
-      <c r="AH36" s="10"/>
-      <c r="AI36" s="10"/>
-      <c r="AJ36" s="10"/>
-      <c r="AK36" s="10"/>
-      <c r="AL36" s="10"/>
-      <c r="AM36" s="10"/>
-      <c r="AN36" s="10"/>
-      <c r="AO36" s="10"/>
-      <c r="AP36" s="10"/>
-      <c r="AQ36" s="10"/>
-      <c r="AR36" s="10"/>
+      <c r="AH36" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI36" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ36" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK36" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL36" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM36" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN36" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO36" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AP36" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ36" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR36" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="AS36" s="10"/>
       <c r="AT36" s="10"/>
-      <c r="AU36" s="10"/>
-      <c r="AV36" s="10"/>
-      <c r="AW36" s="10"/>
-      <c r="AX36" s="10"/>
-      <c r="AY36" s="10"/>
-      <c r="AZ36" s="10"/>
-      <c r="BA36" s="10"/>
-      <c r="BB36" s="10"/>
+      <c r="AU36" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV36" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW36" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX36" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AY36" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ36" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="BA36" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB36" s="10">
+        <v>100</v>
+      </c>
       <c r="BC36" s="10">
         <v>12345</v>
       </c>
@@ -5121,49 +5221,45 @@
         <v>82</v>
       </c>
       <c r="BE36" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF36" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG36" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH36" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="BH36" s="10" t="s">
+      <c r="BI36" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="BJ36" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BI36" s="11" t="s">
+      <c r="BK36" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL36" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="BJ36" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="BK36" s="11"/>
-      <c r="BL36" s="11"/>
     </row>
     <row r="37" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="27"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="B37" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D37" s="27">
-        <v>3795623</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>138</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="8" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>89</v>
@@ -5178,31 +5274,17 @@
       <c r="N37" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="O37" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="P37" s="10" t="s">
-        <v>73</v>
-      </c>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
-      <c r="U37" s="7">
-        <v>18</v>
-      </c>
-      <c r="V37" s="13">
-        <v>123566534</v>
-      </c>
-      <c r="W37" s="7">
-        <v>4534534534</v>
-      </c>
-      <c r="X37" s="7">
-        <v>100226</v>
-      </c>
-      <c r="Y37" s="7" t="s">
-        <v>139</v>
-      </c>
+      <c r="U37" s="7"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
       <c r="Z37" s="7">
         <v>4</v>
       </c>
@@ -5215,75 +5297,31 @@
       <c r="AC37" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="AD37" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE37" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF37" s="10" t="s">
-        <v>65</v>
-      </c>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="10"/>
       <c r="AG37" s="10"/>
-      <c r="AH37" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="AI37" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ37" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK37" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL37" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM37" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AN37" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="AO37" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="AP37" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="AQ37" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AR37" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="AH37" s="10"/>
+      <c r="AI37" s="10"/>
+      <c r="AJ37" s="10"/>
+      <c r="AK37" s="10"/>
+      <c r="AL37" s="10"/>
+      <c r="AM37" s="10"/>
+      <c r="AN37" s="10"/>
+      <c r="AO37" s="10"/>
+      <c r="AP37" s="10"/>
+      <c r="AQ37" s="10"/>
+      <c r="AR37" s="10"/>
       <c r="AS37" s="10"/>
       <c r="AT37" s="10"/>
-      <c r="AU37" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="AV37" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="AW37" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AX37" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AY37" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ37" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA37" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="BB37" s="10">
-        <v>100</v>
-      </c>
+      <c r="AU37" s="10"/>
+      <c r="AV37" s="10"/>
+      <c r="AW37" s="10"/>
+      <c r="AX37" s="10"/>
+      <c r="AY37" s="10"/>
+      <c r="AZ37" s="10"/>
+      <c r="BA37" s="10"/>
+      <c r="BB37" s="10"/>
       <c r="BC37" s="10">
         <v>12345</v>
       </c>
@@ -5291,45 +5329,49 @@
         <v>82</v>
       </c>
       <c r="BE37" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF37" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG37" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH37" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="BH37" s="10" t="s">
-        <v>151</v>
-      </c>
       <c r="BI37" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="BJ37" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="BK37" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="BL37" s="11" t="s">
-        <v>154</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="BK37" s="11"/>
+      <c r="BL37" s="11"/>
     </row>
     <row r="38" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="7" t="s">
+      <c r="A38" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="7" t="s">
-        <v>162</v>
+      <c r="D38" s="30">
+        <v>3795623</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>136</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="8" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="J38" s="8" t="s">
         <v>89</v>
@@ -5344,17 +5386,31 @@
       <c r="N38" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
+      <c r="O38" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="P38" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
       <c r="S38" s="7"/>
       <c r="T38" s="7"/>
-      <c r="U38" s="7"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="7"/>
-      <c r="X38" s="7"/>
-      <c r="Y38" s="7"/>
+      <c r="U38" s="7">
+        <v>18</v>
+      </c>
+      <c r="V38" s="13">
+        <v>123566534</v>
+      </c>
+      <c r="W38" s="7">
+        <v>4534534534</v>
+      </c>
+      <c r="X38" s="7">
+        <v>100226</v>
+      </c>
+      <c r="Y38" s="7" t="s">
+        <v>137</v>
+      </c>
       <c r="Z38" s="7">
         <v>4</v>
       </c>
@@ -5367,31 +5423,75 @@
       <c r="AC38" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="AD38" s="10"/>
-      <c r="AE38" s="10"/>
-      <c r="AF38" s="10"/>
+      <c r="AD38" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE38" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF38" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="AG38" s="10"/>
-      <c r="AH38" s="10"/>
-      <c r="AI38" s="10"/>
-      <c r="AJ38" s="10"/>
-      <c r="AK38" s="10"/>
-      <c r="AL38" s="10"/>
-      <c r="AM38" s="10"/>
-      <c r="AN38" s="10"/>
-      <c r="AO38" s="10"/>
-      <c r="AP38" s="10"/>
-      <c r="AQ38" s="10"/>
-      <c r="AR38" s="10"/>
+      <c r="AH38" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI38" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ38" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK38" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL38" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM38" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN38" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO38" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AP38" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ38" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR38" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="AS38" s="10"/>
       <c r="AT38" s="10"/>
-      <c r="AU38" s="10"/>
-      <c r="AV38" s="10"/>
-      <c r="AW38" s="10"/>
-      <c r="AX38" s="10"/>
-      <c r="AY38" s="10"/>
-      <c r="AZ38" s="10"/>
-      <c r="BA38" s="10"/>
-      <c r="BB38" s="10"/>
+      <c r="AU38" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV38" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW38" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX38" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AY38" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ38" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA38" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB38" s="10">
+        <v>100</v>
+      </c>
       <c r="BC38" s="10">
         <v>12345</v>
       </c>
@@ -5399,49 +5499,45 @@
         <v>82</v>
       </c>
       <c r="BE38" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF38" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG38" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH38" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="BH38" s="10" t="s">
+      <c r="BI38" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="BJ38" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BI38" s="11" t="s">
+      <c r="BK38" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL38" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="BJ38" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="BK38" s="11"/>
-      <c r="BL38" s="11"/>
     </row>
     <row r="39" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="B39" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="23" t="s">
+      <c r="A39" s="27"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="27">
-        <v>3795623</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>138</v>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="8" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>89</v>
@@ -5456,31 +5552,17 @@
       <c r="N39" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="O39" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="P39" s="10" t="s">
-        <v>73</v>
-      </c>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
-      <c r="U39" s="7">
-        <v>18</v>
-      </c>
-      <c r="V39" s="13">
-        <v>123566534</v>
-      </c>
-      <c r="W39" s="7">
-        <v>4534534534</v>
-      </c>
-      <c r="X39" s="7">
-        <v>100226</v>
-      </c>
-      <c r="Y39" s="7" t="s">
-        <v>139</v>
-      </c>
+      <c r="U39" s="7"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
       <c r="Z39" s="7">
         <v>4</v>
       </c>
@@ -5493,75 +5575,31 @@
       <c r="AC39" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="AD39" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE39" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF39" s="10" t="s">
-        <v>65</v>
-      </c>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="10"/>
       <c r="AG39" s="10"/>
-      <c r="AH39" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI39" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ39" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK39" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL39" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM39" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AN39" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="AO39" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="AP39" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="AQ39" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AR39" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="AH39" s="10"/>
+      <c r="AI39" s="10"/>
+      <c r="AJ39" s="10"/>
+      <c r="AK39" s="10"/>
+      <c r="AL39" s="10"/>
+      <c r="AM39" s="10"/>
+      <c r="AN39" s="10"/>
+      <c r="AO39" s="10"/>
+      <c r="AP39" s="10"/>
+      <c r="AQ39" s="10"/>
+      <c r="AR39" s="10"/>
       <c r="AS39" s="10"/>
       <c r="AT39" s="10"/>
-      <c r="AU39" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="AV39" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="AW39" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AX39" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AY39" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ39" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="BA39" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="BB39" s="10">
-        <v>100</v>
-      </c>
+      <c r="AU39" s="10"/>
+      <c r="AV39" s="10"/>
+      <c r="AW39" s="10"/>
+      <c r="AX39" s="10"/>
+      <c r="AY39" s="10"/>
+      <c r="AZ39" s="10"/>
+      <c r="BA39" s="10"/>
+      <c r="BB39" s="10"/>
       <c r="BC39" s="10">
         <v>12345</v>
       </c>
@@ -5569,40 +5607,44 @@
         <v>82</v>
       </c>
       <c r="BE39" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF39" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG39" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH39" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="BH39" s="10" t="s">
-        <v>151</v>
-      </c>
       <c r="BI39" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="BJ39" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="BK39" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="BL39" s="11" t="s">
-        <v>154</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="BK39" s="11"/>
+      <c r="BL39" s="11"/>
     </row>
     <row r="40" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="7" t="s">
+      <c r="A40" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="7" t="s">
-        <v>164</v>
+      <c r="D40" s="30">
+        <v>3795623</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>136</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
@@ -5622,17 +5664,31 @@
       <c r="N40" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
+      <c r="O40" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="P40" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
       <c r="T40" s="7"/>
-      <c r="U40" s="7"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="7"/>
-      <c r="X40" s="7"/>
-      <c r="Y40" s="7"/>
+      <c r="U40" s="7">
+        <v>18</v>
+      </c>
+      <c r="V40" s="13">
+        <v>123566534</v>
+      </c>
+      <c r="W40" s="7">
+        <v>4534534534</v>
+      </c>
+      <c r="X40" s="7">
+        <v>100226</v>
+      </c>
+      <c r="Y40" s="7" t="s">
+        <v>137</v>
+      </c>
       <c r="Z40" s="7">
         <v>4</v>
       </c>
@@ -5645,31 +5701,75 @@
       <c r="AC40" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="AD40" s="10"/>
-      <c r="AE40" s="10"/>
-      <c r="AF40" s="10"/>
+      <c r="AD40" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE40" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF40" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="AG40" s="10"/>
-      <c r="AH40" s="10"/>
-      <c r="AI40" s="10"/>
-      <c r="AJ40" s="10"/>
-      <c r="AK40" s="10"/>
-      <c r="AL40" s="10"/>
-      <c r="AM40" s="10"/>
-      <c r="AN40" s="10"/>
-      <c r="AO40" s="10"/>
-      <c r="AP40" s="10"/>
-      <c r="AQ40" s="10"/>
-      <c r="AR40" s="10"/>
+      <c r="AH40" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI40" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ40" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK40" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL40" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM40" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN40" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO40" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AP40" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ40" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR40" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="AS40" s="10"/>
       <c r="AT40" s="10"/>
-      <c r="AU40" s="10"/>
-      <c r="AV40" s="10"/>
-      <c r="AW40" s="10"/>
-      <c r="AX40" s="10"/>
-      <c r="AY40" s="10"/>
-      <c r="AZ40" s="10"/>
-      <c r="BA40" s="10"/>
-      <c r="BB40" s="10"/>
+      <c r="AU40" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV40" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW40" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX40" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AY40" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ40" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA40" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB40" s="10">
+        <v>100</v>
+      </c>
       <c r="BC40" s="10">
         <v>12345</v>
       </c>
@@ -5677,49 +5777,45 @@
         <v>82</v>
       </c>
       <c r="BE40" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF40" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG40" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH40" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="BH40" s="10" t="s">
+      <c r="BI40" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="BJ40" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BI40" s="11" t="s">
+      <c r="BK40" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL40" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="BJ40" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="BK40" s="11"/>
-      <c r="BL40" s="11"/>
     </row>
     <row r="41" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A41" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="B41" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="23" t="s">
+      <c r="A41" s="27"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="27">
-        <v>3795623</v>
-      </c>
-      <c r="E41" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="F41" s="24" t="s">
-        <v>138</v>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="8" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>89</v>
@@ -5734,31 +5830,17 @@
       <c r="N41" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="O41" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="P41" s="10" t="s">
-        <v>73</v>
-      </c>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
       <c r="S41" s="7"/>
       <c r="T41" s="7"/>
-      <c r="U41" s="7">
-        <v>18</v>
-      </c>
-      <c r="V41" s="13">
-        <v>123566534</v>
-      </c>
-      <c r="W41" s="7">
-        <v>4534534534</v>
-      </c>
-      <c r="X41" s="7">
-        <v>100226</v>
-      </c>
-      <c r="Y41" s="7" t="s">
-        <v>139</v>
-      </c>
+      <c r="U41" s="7"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
       <c r="Z41" s="7">
         <v>4</v>
       </c>
@@ -5771,75 +5853,31 @@
       <c r="AC41" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="AD41" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE41" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF41" s="10" t="s">
-        <v>65</v>
-      </c>
+      <c r="AD41" s="10"/>
+      <c r="AE41" s="10"/>
+      <c r="AF41" s="10"/>
       <c r="AG41" s="10"/>
-      <c r="AH41" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI41" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ41" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK41" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL41" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM41" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AN41" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="AO41" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="AP41" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="AQ41" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AR41" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="AH41" s="10"/>
+      <c r="AI41" s="10"/>
+      <c r="AJ41" s="10"/>
+      <c r="AK41" s="10"/>
+      <c r="AL41" s="10"/>
+      <c r="AM41" s="10"/>
+      <c r="AN41" s="10"/>
+      <c r="AO41" s="10"/>
+      <c r="AP41" s="10"/>
+      <c r="AQ41" s="10"/>
+      <c r="AR41" s="10"/>
       <c r="AS41" s="10"/>
       <c r="AT41" s="10"/>
-      <c r="AU41" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="AV41" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="AW41" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AX41" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AY41" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AZ41" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="BA41" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="BB41" s="10">
-        <v>100</v>
-      </c>
+      <c r="AU41" s="10"/>
+      <c r="AV41" s="10"/>
+      <c r="AW41" s="10"/>
+      <c r="AX41" s="10"/>
+      <c r="AY41" s="10"/>
+      <c r="AZ41" s="10"/>
+      <c r="BA41" s="10"/>
+      <c r="BB41" s="10"/>
       <c r="BC41" s="10">
         <v>12345</v>
       </c>
@@ -5847,45 +5885,49 @@
         <v>82</v>
       </c>
       <c r="BE41" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF41" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG41" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH41" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="BH41" s="10" t="s">
-        <v>151</v>
-      </c>
       <c r="BI41" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="BJ41" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="BK41" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="BL41" s="11" t="s">
-        <v>154</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="BK41" s="11"/>
+      <c r="BL41" s="11"/>
     </row>
     <row r="42" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="7" t="s">
+      <c r="A42" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="7" t="s">
-        <v>155</v>
+      <c r="D42" s="30">
+        <v>3795623</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>136</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
-      <c r="I42" s="8" t="s">
-        <v>156</v>
+      <c r="I42" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="J42" s="8" t="s">
         <v>89</v>
@@ -5900,17 +5942,31 @@
       <c r="N42" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
+      <c r="O42" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="P42" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
       <c r="S42" s="7"/>
       <c r="T42" s="7"/>
-      <c r="U42" s="7"/>
-      <c r="V42" s="13"/>
-      <c r="W42" s="7"/>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="7"/>
+      <c r="U42" s="7">
+        <v>18</v>
+      </c>
+      <c r="V42" s="13">
+        <v>123566534</v>
+      </c>
+      <c r="W42" s="7">
+        <v>4534534534</v>
+      </c>
+      <c r="X42" s="7">
+        <v>100226</v>
+      </c>
+      <c r="Y42" s="7" t="s">
+        <v>137</v>
+      </c>
       <c r="Z42" s="7">
         <v>4</v>
       </c>
@@ -5923,31 +5979,75 @@
       <c r="AC42" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="AD42" s="10"/>
-      <c r="AE42" s="10"/>
-      <c r="AF42" s="10"/>
+      <c r="AD42" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE42" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF42" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="AG42" s="10"/>
-      <c r="AH42" s="10"/>
-      <c r="AI42" s="10"/>
-      <c r="AJ42" s="10"/>
-      <c r="AK42" s="10"/>
-      <c r="AL42" s="10"/>
-      <c r="AM42" s="10"/>
-      <c r="AN42" s="10"/>
-      <c r="AO42" s="10"/>
-      <c r="AP42" s="10"/>
-      <c r="AQ42" s="10"/>
-      <c r="AR42" s="10"/>
+      <c r="AH42" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI42" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ42" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK42" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL42" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM42" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN42" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO42" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AP42" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ42" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR42" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="AS42" s="10"/>
       <c r="AT42" s="10"/>
-      <c r="AU42" s="10"/>
-      <c r="AV42" s="10"/>
-      <c r="AW42" s="10"/>
-      <c r="AX42" s="10"/>
-      <c r="AY42" s="10"/>
-      <c r="AZ42" s="10"/>
-      <c r="BA42" s="10"/>
-      <c r="BB42" s="10"/>
+      <c r="AU42" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV42" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW42" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX42" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AY42" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ42" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA42" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB42" s="10">
+        <v>100</v>
+      </c>
       <c r="BC42" s="10">
         <v>12345</v>
       </c>
@@ -5955,49 +6055,45 @@
         <v>82</v>
       </c>
       <c r="BE42" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF42" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG42" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH42" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="BH42" s="10" t="s">
+      <c r="BI42" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="BJ42" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BI42" s="11" t="s">
+      <c r="BK42" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL42" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="BJ42" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="BK42" s="11"/>
-      <c r="BL42" s="11"/>
     </row>
     <row r="43" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="B43" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="23" t="s">
+      <c r="A43" s="27"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D43" s="27">
-        <v>3795623</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="F43" s="24" t="s">
-        <v>138</v>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
-      <c r="I43" s="15" t="s">
-        <v>69</v>
+      <c r="I43" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="J43" s="8" t="s">
         <v>89</v>
@@ -6012,31 +6108,17 @@
       <c r="N43" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="O43" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="P43" s="10" t="s">
-        <v>73</v>
-      </c>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
       <c r="S43" s="7"/>
       <c r="T43" s="7"/>
-      <c r="U43" s="7">
-        <v>18</v>
-      </c>
-      <c r="V43" s="13">
-        <v>123566534</v>
-      </c>
-      <c r="W43" s="7">
-        <v>4534534534</v>
-      </c>
-      <c r="X43" s="7">
-        <v>100226</v>
-      </c>
-      <c r="Y43" s="7" t="s">
-        <v>139</v>
-      </c>
+      <c r="U43" s="7"/>
+      <c r="V43" s="13"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
       <c r="Z43" s="7">
         <v>4</v>
       </c>
@@ -6049,75 +6131,31 @@
       <c r="AC43" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="AD43" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE43" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF43" s="10" t="s">
-        <v>65</v>
-      </c>
+      <c r="AD43" s="10"/>
+      <c r="AE43" s="10"/>
+      <c r="AF43" s="10"/>
       <c r="AG43" s="10"/>
-      <c r="AH43" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI43" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ43" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK43" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL43" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM43" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AN43" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="AO43" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="AP43" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="AQ43" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AR43" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="AH43" s="10"/>
+      <c r="AI43" s="10"/>
+      <c r="AJ43" s="10"/>
+      <c r="AK43" s="10"/>
+      <c r="AL43" s="10"/>
+      <c r="AM43" s="10"/>
+      <c r="AN43" s="10"/>
+      <c r="AO43" s="10"/>
+      <c r="AP43" s="10"/>
+      <c r="AQ43" s="10"/>
+      <c r="AR43" s="10"/>
       <c r="AS43" s="10"/>
       <c r="AT43" s="10"/>
-      <c r="AU43" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="AV43" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="AW43" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AX43" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AY43" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AZ43" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="BA43" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="BB43" s="10">
-        <v>100</v>
-      </c>
+      <c r="AU43" s="10"/>
+      <c r="AV43" s="10"/>
+      <c r="AW43" s="10"/>
+      <c r="AX43" s="10"/>
+      <c r="AY43" s="10"/>
+      <c r="AZ43" s="10"/>
+      <c r="BA43" s="10"/>
+      <c r="BB43" s="10"/>
       <c r="BC43" s="10">
         <v>12345</v>
       </c>
@@ -6125,45 +6163,49 @@
         <v>82</v>
       </c>
       <c r="BE43" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF43" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG43" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH43" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="BH43" s="10" t="s">
-        <v>151</v>
-      </c>
       <c r="BI43" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="BJ43" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="BK43" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="BL43" s="11" t="s">
-        <v>154</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="BK43" s="11"/>
+      <c r="BL43" s="11"/>
     </row>
     <row r="44" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A44" s="26"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="7" t="s">
+      <c r="A44" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="7" t="s">
-        <v>159</v>
+      <c r="D44" s="30">
+        <v>3795623</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>136</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="8" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="J44" s="8" t="s">
         <v>89</v>
@@ -6178,17 +6220,31 @@
       <c r="N44" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
+      <c r="O44" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="P44" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
       <c r="S44" s="7"/>
       <c r="T44" s="7"/>
-      <c r="U44" s="7"/>
-      <c r="V44" s="13"/>
-      <c r="W44" s="7"/>
-      <c r="X44" s="7"/>
-      <c r="Y44" s="7"/>
+      <c r="U44" s="7">
+        <v>18</v>
+      </c>
+      <c r="V44" s="13">
+        <v>123566534</v>
+      </c>
+      <c r="W44" s="7">
+        <v>4534534534</v>
+      </c>
+      <c r="X44" s="7">
+        <v>100226</v>
+      </c>
+      <c r="Y44" s="7" t="s">
+        <v>137</v>
+      </c>
       <c r="Z44" s="7">
         <v>4</v>
       </c>
@@ -6201,31 +6257,75 @@
       <c r="AC44" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="AD44" s="10"/>
-      <c r="AE44" s="10"/>
-      <c r="AF44" s="10"/>
+      <c r="AD44" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE44" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF44" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="AG44" s="10"/>
-      <c r="AH44" s="10"/>
-      <c r="AI44" s="10"/>
-      <c r="AJ44" s="10"/>
-      <c r="AK44" s="10"/>
-      <c r="AL44" s="10"/>
-      <c r="AM44" s="10"/>
-      <c r="AN44" s="10"/>
-      <c r="AO44" s="10"/>
-      <c r="AP44" s="10"/>
-      <c r="AQ44" s="10"/>
-      <c r="AR44" s="10"/>
+      <c r="AH44" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI44" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ44" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK44" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL44" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM44" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN44" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO44" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AP44" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ44" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR44" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="AS44" s="10"/>
       <c r="AT44" s="10"/>
-      <c r="AU44" s="10"/>
-      <c r="AV44" s="10"/>
-      <c r="AW44" s="10"/>
-      <c r="AX44" s="10"/>
-      <c r="AY44" s="10"/>
-      <c r="AZ44" s="10"/>
-      <c r="BA44" s="10"/>
-      <c r="BB44" s="10"/>
+      <c r="AU44" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV44" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW44" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX44" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AY44" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ44" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="BA44" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB44" s="10">
+        <v>100</v>
+      </c>
       <c r="BC44" s="10">
         <v>12345</v>
       </c>
@@ -6233,49 +6333,45 @@
         <v>82</v>
       </c>
       <c r="BE44" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF44" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG44" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH44" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="BH44" s="10" t="s">
+      <c r="BI44" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="BJ44" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BI44" s="11" t="s">
+      <c r="BK44" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL44" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="BJ44" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="BK44" s="11"/>
-      <c r="BL44" s="11"/>
     </row>
     <row r="45" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="27"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="B45" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D45" s="27">
-        <v>3795623</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="F45" s="24" t="s">
-        <v>138</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="8" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="J45" s="8" t="s">
         <v>89</v>
@@ -6290,31 +6386,17 @@
       <c r="N45" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="O45" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="P45" s="10" t="s">
-        <v>73</v>
-      </c>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
       <c r="T45" s="7"/>
-      <c r="U45" s="7">
-        <v>18</v>
-      </c>
-      <c r="V45" s="13">
-        <v>123566534</v>
-      </c>
-      <c r="W45" s="7">
-        <v>4534534534</v>
-      </c>
-      <c r="X45" s="7">
-        <v>100226</v>
-      </c>
-      <c r="Y45" s="7" t="s">
-        <v>139</v>
-      </c>
+      <c r="U45" s="7"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
       <c r="Z45" s="7">
         <v>4</v>
       </c>
@@ -6327,75 +6409,31 @@
       <c r="AC45" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="AD45" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE45" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF45" s="10" t="s">
-        <v>65</v>
-      </c>
+      <c r="AD45" s="10"/>
+      <c r="AE45" s="10"/>
+      <c r="AF45" s="10"/>
       <c r="AG45" s="10"/>
-      <c r="AH45" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="AI45" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ45" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK45" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL45" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM45" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AN45" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="AO45" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="AP45" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="AQ45" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AR45" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="AH45" s="10"/>
+      <c r="AI45" s="10"/>
+      <c r="AJ45" s="10"/>
+      <c r="AK45" s="10"/>
+      <c r="AL45" s="10"/>
+      <c r="AM45" s="10"/>
+      <c r="AN45" s="10"/>
+      <c r="AO45" s="10"/>
+      <c r="AP45" s="10"/>
+      <c r="AQ45" s="10"/>
+      <c r="AR45" s="10"/>
       <c r="AS45" s="10"/>
       <c r="AT45" s="10"/>
-      <c r="AU45" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="AV45" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="AW45" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AX45" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AY45" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AZ45" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA45" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="BB45" s="10">
-        <v>100</v>
-      </c>
+      <c r="AU45" s="10"/>
+      <c r="AV45" s="10"/>
+      <c r="AW45" s="10"/>
+      <c r="AX45" s="10"/>
+      <c r="AY45" s="10"/>
+      <c r="AZ45" s="10"/>
+      <c r="BA45" s="10"/>
+      <c r="BB45" s="10"/>
       <c r="BC45" s="10">
         <v>12345</v>
       </c>
@@ -6403,45 +6441,49 @@
         <v>82</v>
       </c>
       <c r="BE45" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF45" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG45" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH45" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="BH45" s="10" t="s">
-        <v>151</v>
-      </c>
       <c r="BI45" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="BJ45" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="BK45" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="BL45" s="11" t="s">
-        <v>154</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="BK45" s="11"/>
+      <c r="BL45" s="11"/>
     </row>
     <row r="46" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="7" t="s">
+      <c r="A46" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="7" t="s">
-        <v>162</v>
+      <c r="D46" s="30">
+        <v>3795623</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>136</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="8" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="J46" s="8" t="s">
         <v>89</v>
@@ -6456,17 +6498,31 @@
       <c r="N46" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
+      <c r="O46" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="P46" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
       <c r="S46" s="7"/>
       <c r="T46" s="7"/>
-      <c r="U46" s="7"/>
-      <c r="V46" s="13"/>
-      <c r="W46" s="7"/>
-      <c r="X46" s="7"/>
-      <c r="Y46" s="7"/>
+      <c r="U46" s="7">
+        <v>18</v>
+      </c>
+      <c r="V46" s="13">
+        <v>123566534</v>
+      </c>
+      <c r="W46" s="7">
+        <v>4534534534</v>
+      </c>
+      <c r="X46" s="7">
+        <v>100226</v>
+      </c>
+      <c r="Y46" s="7" t="s">
+        <v>137</v>
+      </c>
       <c r="Z46" s="7">
         <v>4</v>
       </c>
@@ -6479,31 +6535,75 @@
       <c r="AC46" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="AD46" s="10"/>
-      <c r="AE46" s="10"/>
-      <c r="AF46" s="10"/>
+      <c r="AD46" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE46" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF46" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="AG46" s="10"/>
-      <c r="AH46" s="10"/>
-      <c r="AI46" s="10"/>
-      <c r="AJ46" s="10"/>
-      <c r="AK46" s="10"/>
-      <c r="AL46" s="10"/>
-      <c r="AM46" s="10"/>
-      <c r="AN46" s="10"/>
-      <c r="AO46" s="10"/>
-      <c r="AP46" s="10"/>
-      <c r="AQ46" s="10"/>
-      <c r="AR46" s="10"/>
+      <c r="AH46" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI46" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ46" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK46" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL46" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM46" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN46" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO46" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AP46" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ46" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR46" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="AS46" s="10"/>
       <c r="AT46" s="10"/>
-      <c r="AU46" s="10"/>
-      <c r="AV46" s="10"/>
-      <c r="AW46" s="10"/>
-      <c r="AX46" s="10"/>
-      <c r="AY46" s="10"/>
-      <c r="AZ46" s="10"/>
-      <c r="BA46" s="10"/>
-      <c r="BB46" s="10"/>
+      <c r="AU46" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV46" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW46" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX46" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AY46" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ46" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA46" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB46" s="10">
+        <v>100</v>
+      </c>
       <c r="BC46" s="10">
         <v>12345</v>
       </c>
@@ -6511,49 +6611,45 @@
         <v>82</v>
       </c>
       <c r="BE46" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF46" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG46" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH46" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="BH46" s="10" t="s">
+      <c r="BI46" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="BJ46" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="BI46" s="11" t="s">
+      <c r="BK46" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL46" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="BJ46" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="BK46" s="11"/>
-      <c r="BL46" s="11"/>
     </row>
     <row r="47" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A47" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="B47" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="23" t="s">
+      <c r="A47" s="27"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D47" s="27">
-        <v>3795623</v>
-      </c>
-      <c r="E47" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="F47" s="24" t="s">
-        <v>138</v>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="8" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>89</v>
@@ -6568,31 +6664,17 @@
       <c r="N47" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="O47" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="P47" s="10" t="s">
-        <v>73</v>
-      </c>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
-      <c r="U47" s="7">
-        <v>18</v>
-      </c>
-      <c r="V47" s="13">
-        <v>123566534</v>
-      </c>
-      <c r="W47" s="7">
-        <v>4534534534</v>
-      </c>
-      <c r="X47" s="7">
-        <v>100226</v>
-      </c>
-      <c r="Y47" s="7" t="s">
-        <v>139</v>
-      </c>
+      <c r="U47" s="7"/>
+      <c r="V47" s="13"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
       <c r="Z47" s="7">
         <v>4</v>
       </c>
@@ -6605,75 +6687,31 @@
       <c r="AC47" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="AD47" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE47" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF47" s="10" t="s">
-        <v>65</v>
-      </c>
+      <c r="AD47" s="10"/>
+      <c r="AE47" s="10"/>
+      <c r="AF47" s="10"/>
       <c r="AG47" s="10"/>
-      <c r="AH47" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI47" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ47" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK47" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL47" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM47" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AN47" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="AO47" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="AP47" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="AQ47" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AR47" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="AH47" s="10"/>
+      <c r="AI47" s="10"/>
+      <c r="AJ47" s="10"/>
+      <c r="AK47" s="10"/>
+      <c r="AL47" s="10"/>
+      <c r="AM47" s="10"/>
+      <c r="AN47" s="10"/>
+      <c r="AO47" s="10"/>
+      <c r="AP47" s="10"/>
+      <c r="AQ47" s="10"/>
+      <c r="AR47" s="10"/>
       <c r="AS47" s="10"/>
       <c r="AT47" s="10"/>
-      <c r="AU47" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="AV47" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="AW47" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AX47" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AY47" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AZ47" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="BA47" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="BB47" s="10">
-        <v>100</v>
-      </c>
+      <c r="AU47" s="10"/>
+      <c r="AV47" s="10"/>
+      <c r="AW47" s="10"/>
+      <c r="AX47" s="10"/>
+      <c r="AY47" s="10"/>
+      <c r="AZ47" s="10"/>
+      <c r="BA47" s="10"/>
+      <c r="BB47" s="10"/>
       <c r="BC47" s="10">
         <v>12345</v>
       </c>
@@ -6681,45 +6719,49 @@
         <v>82</v>
       </c>
       <c r="BE47" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF47" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG47" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH47" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="BH47" s="10" t="s">
-        <v>151</v>
-      </c>
       <c r="BI47" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="BJ47" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="BK47" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="BL47" s="11" t="s">
-        <v>154</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="BK47" s="11"/>
+      <c r="BL47" s="11"/>
     </row>
     <row r="48" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
-      <c r="B48" s="40"/>
+      <c r="A48" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="C48" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
+      <c r="D48" s="7">
+        <v>3795623</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="F48" s="7" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="8" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>89</v>
@@ -6795,125 +6837,301 @@
         <v>2</v>
       </c>
       <c r="BG48" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH48" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="BH48" s="10" t="s">
-        <v>151</v>
-      </c>
       <c r="BI48" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="BJ48" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BK48" s="11"/>
       <c r="BL48" s="11"/>
     </row>
+    <row r="49" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" s="7">
+        <v>3795623</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="L49" s="7"/>
+      <c r="M49" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="N49" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="O49" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="P49" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7">
+        <v>18</v>
+      </c>
+      <c r="V49" s="13">
+        <v>123566534</v>
+      </c>
+      <c r="W49" s="7">
+        <v>4534534534</v>
+      </c>
+      <c r="X49" s="7">
+        <v>100226</v>
+      </c>
+      <c r="Y49" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z49" s="7">
+        <v>4</v>
+      </c>
+      <c r="AA49" s="7">
+        <v>4</v>
+      </c>
+      <c r="AB49" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC49" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD49" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE49" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF49" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG49" s="10"/>
+      <c r="AH49" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI49" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ49" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK49" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL49" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM49" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN49" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO49" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AP49" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ49" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR49" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS49" s="10"/>
+      <c r="AT49" s="10"/>
+      <c r="AU49" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV49" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW49" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX49" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AY49" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ49" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA49" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB49" s="10">
+        <v>100</v>
+      </c>
+      <c r="BC49" s="10">
+        <v>12345</v>
+      </c>
+      <c r="BD49" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE49" s="10">
+        <v>2</v>
+      </c>
+      <c r="BF49" s="10">
+        <v>2</v>
+      </c>
+      <c r="BG49" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH49" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="BI49" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="BJ49" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="BK49" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL49" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
     <mergeCell ref="A1:BL1"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="D3:D6"/>
     <mergeCell ref="E3:E6"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AC3" r:id="rId1"/>
-    <hyperlink ref="AC15" r:id="rId2"/>
+    <hyperlink ref="AC14" r:id="rId2"/>
     <hyperlink ref="AC7" r:id="rId3"/>
-    <hyperlink ref="AC10" r:id="rId4"/>
-    <hyperlink ref="AC12" r:id="rId5"/>
-    <hyperlink ref="AC14" r:id="rId6"/>
-    <hyperlink ref="AC18" r:id="rId7"/>
-    <hyperlink ref="AC19" r:id="rId8"/>
-    <hyperlink ref="AC20" r:id="rId9"/>
-    <hyperlink ref="AC21" r:id="rId10"/>
-    <hyperlink ref="AC22" r:id="rId11"/>
-    <hyperlink ref="AC23" r:id="rId12"/>
-    <hyperlink ref="AC24" r:id="rId13"/>
-    <hyperlink ref="AC25" r:id="rId14"/>
-    <hyperlink ref="AC26" r:id="rId15"/>
-    <hyperlink ref="AC27" r:id="rId16"/>
-    <hyperlink ref="AC28" r:id="rId17"/>
+    <hyperlink ref="AC9" r:id="rId4"/>
+    <hyperlink ref="AC11" r:id="rId5"/>
+    <hyperlink ref="AC13" r:id="rId6"/>
+    <hyperlink ref="AC17" r:id="rId7"/>
+    <hyperlink ref="AC18" r:id="rId8"/>
+    <hyperlink ref="AC19" r:id="rId9"/>
+    <hyperlink ref="AC20" r:id="rId10"/>
+    <hyperlink ref="AC21" r:id="rId11"/>
+    <hyperlink ref="AC22" r:id="rId12"/>
+    <hyperlink ref="AC23" r:id="rId13"/>
+    <hyperlink ref="AC24" r:id="rId14"/>
+    <hyperlink ref="AC25" r:id="rId15"/>
+    <hyperlink ref="AC26" r:id="rId16"/>
+    <hyperlink ref="AC27" r:id="rId17"/>
     <hyperlink ref="AC4:AC6" r:id="rId18" display="ashwanis@yopmail.com"/>
-    <hyperlink ref="AC29" r:id="rId19"/>
-    <hyperlink ref="AC30:AC32" r:id="rId20" display="ashwanis@yopmail.com"/>
-    <hyperlink ref="AC33" r:id="rId21"/>
-    <hyperlink ref="AC34" r:id="rId22"/>
-    <hyperlink ref="AC35" r:id="rId23"/>
-    <hyperlink ref="AC36" r:id="rId24"/>
-    <hyperlink ref="AC37" r:id="rId25"/>
-    <hyperlink ref="AC38" r:id="rId26"/>
-    <hyperlink ref="AC39" r:id="rId27"/>
-    <hyperlink ref="AC40" r:id="rId28"/>
-    <hyperlink ref="AC41" r:id="rId29"/>
-    <hyperlink ref="AC42" r:id="rId30"/>
-    <hyperlink ref="AC43" r:id="rId31"/>
-    <hyperlink ref="AC44" r:id="rId32"/>
-    <hyperlink ref="AC45" r:id="rId33"/>
-    <hyperlink ref="AC46" r:id="rId34"/>
-    <hyperlink ref="AC47" r:id="rId35"/>
-    <hyperlink ref="AC48" r:id="rId36"/>
+    <hyperlink ref="AC28" r:id="rId19"/>
+    <hyperlink ref="AC29:AC31" r:id="rId20" display="ashwanis@yopmail.com"/>
+    <hyperlink ref="AC32" r:id="rId21"/>
+    <hyperlink ref="AC33" r:id="rId22"/>
+    <hyperlink ref="AC34" r:id="rId23"/>
+    <hyperlink ref="AC35" r:id="rId24"/>
+    <hyperlink ref="AC36" r:id="rId25"/>
+    <hyperlink ref="AC37" r:id="rId26"/>
+    <hyperlink ref="AC38" r:id="rId27"/>
+    <hyperlink ref="AC39" r:id="rId28"/>
+    <hyperlink ref="AC40" r:id="rId29"/>
+    <hyperlink ref="AC41" r:id="rId30"/>
+    <hyperlink ref="AC42" r:id="rId31"/>
+    <hyperlink ref="AC43" r:id="rId32"/>
+    <hyperlink ref="AC44" r:id="rId33"/>
+    <hyperlink ref="AC45" r:id="rId34"/>
+    <hyperlink ref="AC46" r:id="rId35"/>
+    <hyperlink ref="AC47" r:id="rId36"/>
+    <hyperlink ref="AC48" r:id="rId37"/>
+    <hyperlink ref="AC49" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId37"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId39"/>
 </worksheet>
 </file>